--- a/EmailTest.xlsx
+++ b/EmailTest.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">garbageinfo</t>
+    <t xml:space="preserve">garbageinfo@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">propergmail@gmail.com</t>
+    <t xml:space="preserve">ayahya.testitg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">046pre056ty</t>
   </si>
 </sst>
 </file>
@@ -135,10 +141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -147,7 +153,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -157,9 +163,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="propergmail@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="garbageinfo@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="ayahya.testitg@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
